--- a/Elaborazione_dati/cartellaxlsx/Calabria.xlsx
+++ b/Elaborazione_dati/cartellaxlsx/Calabria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,567 +434,534 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ITTER107</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ITTER107</t>
+          <t>Territorio</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Territorio</t>
+          <t>TIPO_DATO_CENERG</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TIPO_DATO_CENERG</t>
+          <t>Tipo dato</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Tipo dato</t>
+          <t>DOTAZIONI_A</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>DOTAZIONI_A</t>
+          <t>Fonte alimentazione</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Fonte alimentazione</t>
+          <t>TIME</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>TIME</t>
+          <t>Seleziona periodo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Seleziona periodo</t>
+          <t>Value</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Flag Codes</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Flag Codes</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>Flags</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>270</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITF6</t>
+          <t>Calabria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Calabria</t>
+          <t>ENER_SOUR_EXP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>spese delle famiglie per consumi energetici per fonte (migliaia di euro)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ALL</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tutte le voci</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1161997</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>ENER_SOUR_EXP</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>spese delle famiglie per consumi energetici per fonte (migliaia di euro)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>tutte le voci</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1161997</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>H_OIL</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>gasolio</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10027</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>ENER_SOUR_EXP</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>spese delle famiglie per consumi energetici per fonte (migliaia di euro)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LPG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gpl (Gas Petrolio Liquefatto)</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I4" t="n">
+        <v>126783</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ENER_SOUR_EXP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>spese delle famiglie per consumi energetici per fonte (migliaia di euro)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ELECTR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>energia elettrica</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I5" t="n">
+        <v>509778</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ENER_SOUR_EXP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>spese delle famiglie per consumi energetici per fonte (migliaia di euro)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>METAN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>metano</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I6" t="n">
+        <v>372022</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ENER_SOUR_EXP_AV</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>H_OIL</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>gasolio</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10027</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ENER_SOUR_EXP</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>spese delle famiglie per consumi energetici per fonte (migliaia di euro)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I7" t="n">
+        <v>861</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ENER_SOUR_EXP_AV</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>LPG</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Gpl (Gas Petrolio Liquefatto)</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J4" t="n">
-        <v>126783</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ENER_SOUR_EXP</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>spese delle famiglie per consumi energetici per fonte (migliaia di euro)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I8" t="n">
+        <v>359</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ENER_SOUR_EXP_AV</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>ELECTR</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>energia elettrica</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J5" t="n">
-        <v>509778</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ENER_SOUR_EXP</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>spese delle famiglie per consumi energetici per fonte (migliaia di euro)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I9" t="n">
+        <v>639</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ENER_SOUR_EXP_AV</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>METAN</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>metano</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J6" t="n">
-        <v>372022</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="G10" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I10" t="n">
+        <v>793</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>ENER_SOUR_EXP_AV</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>H_OIL</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>gasolio</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J7" t="n">
-        <v>861</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FIREWOOD</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>legna</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2013</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2013</v>
+      </c>
+      <c r="I11" t="n">
+        <v>625</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ITF6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Calabria</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>ENER_SOUR_EXP_AV</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>LPG</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Gpl (Gas Petrolio Liquefatto)</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J8" t="n">
-        <v>359</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ENER_SOUR_EXP_AV</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ELECTR</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>energia elettrica</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J9" t="n">
-        <v>639</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ENER_SOUR_EXP_AV</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>METAN</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>metano</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J10" t="n">
-        <v>793</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ENER_SOUR_EXP_AV</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>FIREWOOD</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>legna</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2013</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J11" t="n">
-        <v>625</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ITF6</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Calabria</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ENER_SOUR_EXP_AV</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>spesa media effettiva delle famiglie per consumi energetici per fonte (euro)</t>
+          <t>PELLETS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PELLETS</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
           <t>pellets</t>
         </is>
       </c>
+      <c r="G12" t="n">
+        <v>2013</v>
+      </c>
       <c r="H12" t="n">
         <v>2013</v>
       </c>
       <c r="I12" t="n">
-        <v>2013</v>
-      </c>
-      <c r="J12" t="n">
         <v>477</v>
       </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
